--- a/Switch ドラゴン・マークト・フォー・デス 金手指.xlsx
+++ b/Switch ドラゴン・マークト・フォー・デス 金手指.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>Switch ドラゴン・マークト・フォー・デス Ver.1.1.0
 TID:010089700150E000
@@ -25,10 +25,10 @@
     <t>HP</t>
   </si>
   <si>
-    <t>[main+1a3e390] + 578</t>
-  </si>
-  <si>
-    <t>580F0000 01a3e390</t>
+    <t>[main+1A3E390] + 578</t>
+  </si>
+  <si>
+    <t>580F0000 01A3E390</t>
   </si>
   <si>
     <t>780F0000 00000578</t>
@@ -40,7 +40,53 @@
     <t>HP上限</t>
   </si>
   <si>
-    <t>[main+1a3e390] + 57C</t>
+    <t>[main+1A3E390] + 57C</t>
+  </si>
+  <si>
+    <t>控制HP上限地址</t>
+  </si>
+  <si>
+    <t>[main+1A3E390] + 580</t>
+  </si>
+  <si>
+    <r>
+      <t>每+1=+4的hp上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>限</t>
+    </r>
+  </si>
+  <si>
+    <t>780F0000 00000580</t>
+  </si>
+  <si>
+    <r>
+      <t>HP上限是根据此地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>化</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -48,12 +94,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,7 +115,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,49 +180,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -150,6 +204,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,9 +220,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,35 +251,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -221,6 +273,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -233,175 +417,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,11 +476,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,21 +517,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,17 +556,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,149 +572,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,9 +723,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -994,15 +1043,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
@@ -1015,15 +1064,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="5:5">
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="5:5">
-      <c r="E4" s="3"/>
-    </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>1</v>
@@ -1063,6 +1103,33 @@
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Switch ドラゴン・マークト・フォー・デス 金手指.xlsx
+++ b/Switch ドラゴン・マークト・フォー・デス 金手指.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>Switch ドラゴン・マークト・フォー・デス Ver.1.1.0
 TID:010089700150E000
@@ -25,68 +25,46 @@
     <t>HP</t>
   </si>
   <si>
-    <t>[main+1A3E390] + 578</t>
+    <t>[main+1a3e390] + 938</t>
   </si>
   <si>
     <t>580F0000 01A3E390</t>
   </si>
   <si>
-    <t>780F0000 00000578</t>
-  </si>
-  <si>
-    <t>680F0000 00000000 0000270F</t>
+    <t>780F0000 00000938</t>
+  </si>
+  <si>
+    <t>640F0000 00000000 00000032</t>
   </si>
   <si>
     <t>HP上限</t>
   </si>
   <si>
-    <t>[main+1A3E390] + 57C</t>
+    <t>[main+1a3e390] + 93C</t>
+  </si>
+  <si>
+    <t>780F0000 0000093C</t>
+  </si>
+  <si>
+    <t>640F0000 00000000 0000270F</t>
   </si>
   <si>
     <t>控制HP上限地址</t>
   </si>
   <si>
-    <t>[main+1A3E390] + 580</t>
-  </si>
-  <si>
-    <r>
-      <t>每+1=+4的hp上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>限</t>
-    </r>
-  </si>
-  <si>
-    <t>780F0000 00000580</t>
-  </si>
-  <si>
-    <r>
-      <t>HP上限是根据此地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>变</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>化</t>
-    </r>
+    <t>[main+1a3e390] + 940</t>
+  </si>
+  <si>
+    <t>每+1=+4的hp上限</t>
+  </si>
+  <si>
+    <t>780F0000 00000940</t>
+  </si>
+  <si>
+    <t>HP上限是根据此地址变化</t>
+  </si>
+  <si>
+    <t>钱？</t>
   </si>
 </sst>
 </file>
@@ -94,12 +72,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,7 +93,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,7 +152,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,28 +160,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,22 +222,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -204,64 +229,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -273,37 +245,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,31 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,109 +407,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,15 +436,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -506,26 +469,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,8 +507,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,10 +544,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,133 +556,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,16 +1015,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B17" sqref="B17:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="49.625" style="1" customWidth="1"/>
@@ -1098,20 +1070,20 @@
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
@@ -1119,18 +1091,23 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Switch ドラゴン・マークト・フォー・デス 金手指.xlsx
+++ b/Switch ドラゴン・マークト・フォー・デス 金手指.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8535"/>
+    <workbookView windowWidth="16260" windowHeight="17985"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="基本" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>Switch ドラゴン・マークト・フォー・デス Ver.1.1.0
 TID:010089700150E000
@@ -22,6 +22,9 @@
 by露易娘</t>
   </si>
   <si>
+    <t>地区：オーガの砦</t>
+  </si>
+  <si>
     <t>HP</t>
   </si>
   <si>
@@ -31,6 +34,29 @@
     <t>580F0000 01A3E390</t>
   </si>
   <si>
+    <r>
+      <t>任</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：オーガの砦</t>
+    </r>
+  </si>
+  <si>
     <t>780F0000 00000938</t>
   </si>
   <si>
@@ -64,7 +90,105 @@
     <t>HP上限是根据此地址变化</t>
   </si>
   <si>
-    <t>钱？</t>
+    <t>地区：シーカ村</t>
+  </si>
+  <si>
+    <t>[main+1a3e390] + 1978</t>
+  </si>
+  <si>
+    <t>任务：財宝を求めて</t>
+  </si>
+  <si>
+    <t>780F0000 00001978</t>
+  </si>
+  <si>
+    <t>[main+1a3e390] + 197C</t>
+  </si>
+  <si>
+    <t>780F0000 0000197C</t>
+  </si>
+  <si>
+    <t>[main+1a3e390] + 1980</t>
+  </si>
+  <si>
+    <t>780F0000 00001980</t>
+  </si>
+  <si>
+    <t>地区：タポール雪山</t>
+  </si>
+  <si>
+    <t>[main+1a3e390] + 578</t>
+  </si>
+  <si>
+    <r>
+      <t>任</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：氷山を越えて</t>
+    </r>
+  </si>
+  <si>
+    <t>780F0000 00000578</t>
+  </si>
+  <si>
+    <t>[main+1a3e390] + 57C</t>
+  </si>
+  <si>
+    <t>780F0000 0000057C</t>
+  </si>
+  <si>
+    <t>[main+1a3e390] + 580</t>
+  </si>
+  <si>
+    <t>780F0000 00000580</t>
+  </si>
+  <si>
+    <t>[main+1a3e390] + 438</t>
+  </si>
+  <si>
+    <t>[main+1a3e390] + 43C</t>
+  </si>
+  <si>
+    <t>[main+1a3e390] + 440</t>
+  </si>
+  <si>
+    <t>[main+1a7d340]  - 42d0</t>
+  </si>
+  <si>
+    <t>[main+1a3e390] + 1d30</t>
+  </si>
+  <si>
+    <t>[main+1a28390]  - 82d0</t>
+  </si>
+  <si>
+    <t>[main+1a3e1d0]  - 8410</t>
+  </si>
+  <si>
+    <t>[main+1abc058] + ed30</t>
+  </si>
+  <si>
+    <t>[main+1a8a258] + fce0</t>
+  </si>
+  <si>
+    <t>[main+19eec88]  - 7310</t>
+  </si>
+  <si>
+    <t>[main+19f4e88]  - 8190</t>
   </si>
 </sst>
 </file>
@@ -72,12 +196,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,44 +217,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,13 +255,82 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -160,80 +339,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -245,187 +375,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,6 +566,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -472,19 +626,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,33 +658,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,10 +674,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,133 +686,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,28 +1145,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B20"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
+    <col min="1" max="1" width="49.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="49.625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:5">
-      <c r="E1" s="2" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1046,73 +1176,312 @@
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="3:3">
-      <c r="C7" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
-      <c r="C8" s="1" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
+      <c r="D22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="A1:A4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
